--- a/Glossary.xlsx
+++ b/Glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2fc68e00ba21fa7/Desktop/My_projects/Expenses_extraction/expext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048FDD1DD5AE05BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B9975B-2CB2-41BC-B5F4-7686DB954136}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048FDD1DD5AE05BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5504C06E-A092-4ADE-A0B6-F2A2AF02E56F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>How to name files in English</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>brightcom</t>
+  </si>
+  <si>
+    <t>minharothakarmel</t>
+  </si>
+  <si>
+    <t>מנהרות הכרמל</t>
   </si>
 </sst>
 </file>
@@ -110,6 +116,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,19 +426,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
